--- a/davis_work/vasp_work.xlsx
+++ b/davis_work/vasp_work.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/davis_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6807E13D-0DB2-5042-A527-D86BBE359A43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88B5A3C-C98A-B64E-A7C1-C8BE3CD402C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17180" yWindow="2220" windowWidth="27240" windowHeight="16440" xr2:uid="{38D3AEBC-83C1-4A42-9881-5605D0A73445}"/>
+    <workbookView xWindow="17760" yWindow="7460" windowWidth="27240" windowHeight="16440" xr2:uid="{38D3AEBC-83C1-4A42-9881-5605D0A73445}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="85">
   <si>
     <t>bcc Fe</t>
   </si>
@@ -165,9 +176,6 @@
     <t>Ef/at</t>
   </si>
   <si>
-    <t>B2 Fe3Al</t>
-  </si>
-  <si>
     <t>B2 Fe-Al</t>
   </si>
   <si>
@@ -237,12 +245,6 @@
     <t>2*4</t>
   </si>
   <si>
-    <t>My first description was the exact same as D03</t>
-  </si>
-  <si>
-    <t>This is slightly different, but not symmetric</t>
-  </si>
-  <si>
     <t>full supercell</t>
   </si>
   <si>
@@ -256,6 +258,39 @@
   </si>
   <si>
     <t>Fe-Ni liq</t>
+  </si>
+  <si>
+    <t>B2-FeAl nomag</t>
+  </si>
+  <si>
+    <t>B2 FeNi</t>
+  </si>
+  <si>
+    <t>k10</t>
+  </si>
+  <si>
+    <t>D03 Fe3Ni</t>
+  </si>
+  <si>
+    <t>k6</t>
+  </si>
+  <si>
+    <t>D03 FeNi3</t>
+  </si>
+  <si>
+    <t>L12 Fe3Al</t>
+  </si>
+  <si>
+    <t>D03 FeAl3</t>
+  </si>
+  <si>
+    <t>L12 FeAl3</t>
+  </si>
+  <si>
+    <t>L10 FeAl</t>
+  </si>
+  <si>
+    <t>inherently aniso</t>
   </si>
 </sst>
 </file>
@@ -302,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -318,6 +353,10 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -634,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D62DD5-F7BF-C245-AFF8-B1AF85A0045F}">
-  <dimension ref="B2:W60"/>
+  <dimension ref="B2:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U3" s="9">
         <v>-0.32622162499999963</v>
@@ -682,13 +721,13 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U4" s="9">
         <v>-0.19390018750000015</v>
@@ -744,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1"/>
       <c r="H6" s="4"/>
@@ -880,7 +919,7 @@
       <c r="E10" s="1"/>
       <c r="H10" s="4"/>
       <c r="T10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U10" s="9">
         <v>-0.49583943749999992</v>
@@ -889,7 +928,7 @@
         <v>5.7455668413325496</v>
       </c>
       <c r="W10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
@@ -919,23 +958,23 @@
         <v>34</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V11" s="9">
         <f>V10/2</f>
         <v>2.8727834206662748</v>
       </c>
       <c r="W11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
@@ -979,7 +1018,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>41</v>
@@ -1009,7 +1048,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>41</v>
@@ -1018,7 +1057,7 @@
         <v>-29.996182999999998</v>
       </c>
       <c r="I14" s="9">
-        <f>(H14-1*$J$53-3*$J$60)/4</f>
+        <f>(H14-1*$J$70-3*$J$77)/4</f>
         <v>5.6219750000000346E-2</v>
       </c>
       <c r="J14" s="7">
@@ -1086,7 +1125,7 @@
         <v>3.5380874259120167</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1098,7 +1137,7 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>42</v>
@@ -1107,7 +1146,7 @@
         <v>-25.019812999999999</v>
       </c>
       <c r="I17" s="9">
-        <f>(H17-1*$J$59-3*$J$53)/4</f>
+        <f>(H17-1*$J$76-3*$J$70)/4</f>
         <v>-8.32259999999998E-2</v>
       </c>
       <c r="J17" s="7">
@@ -1133,7 +1172,7 @@
         <v>36099.840000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1146,7 +1185,7 @@
       <c r="E18" s="1"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1175,7 +1214,7 @@
         <v>3.5561027080415948</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +1226,7 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
@@ -1200,7 +1239,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1212,7 +1251,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>43</v>
@@ -1221,7 +1260,7 @@
         <v>-27.699445999999998</v>
       </c>
       <c r="I21" s="9">
-        <f>(H21-2*$J$59-2*$J$53)/4</f>
+        <f>(H21-2*$J$76-2*$J$70)/4</f>
         <v>-6.1390999999999529E-2</v>
       </c>
       <c r="J21" s="7">
@@ -1247,7 +1286,7 @@
         <v>32648.219999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1267,7 +1306,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1282,7 +1321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1294,7 +1333,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" s="3">
         <v>-12.642702</v>
@@ -1311,7 +1350,7 @@
         <v>2.8752551758384484</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,16 +1362,16 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" s="8">
         <v>-12.641276</v>
       </c>
       <c r="I25" s="9">
-        <f>(H25-1*$J$59-1*$J$47)/2</f>
+        <f>(H25-1*$J$76-1*$J$64)/2</f>
         <v>-0.32622162499999963</v>
       </c>
       <c r="J25" s="7">
@@ -1358,7 +1397,7 @@
         <v>19380</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1369,8 +1408,30 @@
         <v>1</v>
       </c>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F26" s="7"/>
+      <c r="G26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="11">
+        <v>-12.607521999999999</v>
+      </c>
+      <c r="I26" s="6">
+        <f>(H26-1*$J$76-1*$J$64)/2</f>
+        <v>-0.3093446249999996</v>
+      </c>
+      <c r="J26" s="5">
+        <v>23.59</v>
+      </c>
+      <c r="K26" s="6">
+        <f>J26^(1/3)</f>
+        <v>2.8679790877745752</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1381,14 +1442,18 @@
         <v>0.1</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="P27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1399,46 +1464,28 @@
         <v>23</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
+      <c r="F28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="H28" s="3">
-        <v>-116.62127</v>
-      </c>
-      <c r="I28" s="4">
-        <f>(H28-12*$J$59-4*$J$47)/16</f>
-        <v>-0.16814268750000005</v>
-      </c>
-      <c r="J28">
-        <v>190.24</v>
-      </c>
-      <c r="K28" s="4">
+        <v>-13.569121000000001</v>
+      </c>
+      <c r="I28" s="6">
+        <f>(H28-1*$J$76-1*$J$70)/2</f>
+        <v>7.8909999999999592E-2</v>
+      </c>
+      <c r="J28" s="5">
+        <v>23.2</v>
+      </c>
+      <c r="K28" s="6">
         <f>J28^(1/3)</f>
-        <v>5.7513166487081691</v>
-      </c>
-      <c r="L28">
-        <v>35</v>
-      </c>
-      <c r="M28">
-        <f>L28/16</f>
-        <v>2.1875</v>
-      </c>
-      <c r="N28">
-        <f>L28*16^3</f>
-        <v>143360</v>
-      </c>
-      <c r="O28">
-        <f>L28*J28</f>
-        <v>6658.4000000000005</v>
-      </c>
-      <c r="P28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+        <v>2.8520862942848173</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1449,93 +1496,86 @@
         <v>8</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-116.62061</v>
-      </c>
-      <c r="I29" s="4">
-        <f>(H29-12*$J$59-4*$J$47)/16</f>
-        <v>-0.16810143750000028</v>
-      </c>
-      <c r="J29">
-        <v>190.26</v>
-      </c>
-      <c r="K29" s="4">
+      <c r="F29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="8">
+        <v>-13.569323000000001</v>
+      </c>
+      <c r="I29" s="9">
+        <f>(H29-1*$J$76-1*$J$70)/2</f>
+        <v>7.8808999999999685E-2</v>
+      </c>
+      <c r="J29" s="7">
+        <v>23.19</v>
+      </c>
+      <c r="K29" s="9">
         <f>J29^(1/3)</f>
-        <v>5.7515181876454591</v>
-      </c>
-      <c r="L29">
-        <v>196</v>
-      </c>
-      <c r="M29">
-        <f>L29/16</f>
-        <v>12.25</v>
-      </c>
-      <c r="N29">
-        <f>L29*16^3</f>
-        <v>802816</v>
-      </c>
-      <c r="O29">
-        <f>L29*J29</f>
-        <v>37290.959999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+        <v>2.85167645288037</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="3">
+        <v>-120.37047</v>
+      </c>
+      <c r="I31" s="4">
+        <f>(H31-12*$J$76-4*$J$70)/16</f>
+        <v>3.2059374999999779E-2</v>
+      </c>
+      <c r="J31">
+        <v>186.89</v>
+      </c>
+      <c r="K31" s="4">
+        <f>J31^(1/3)</f>
+        <v>5.7173575745376199</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
       </c>
       <c r="H32" s="3">
-        <v>-117.02958</v>
+        <v>-120.39919</v>
       </c>
       <c r="I32" s="4">
-        <f>(H32-12*$J$59-4*$J$47)/16</f>
-        <v>-0.19366206250000007</v>
+        <f>(H32-12*$J$76-4*$J$70)/16</f>
+        <v>3.0264374999999344E-2</v>
       </c>
       <c r="J32">
-        <v>188.47</v>
+        <v>186.29</v>
       </c>
       <c r="K32" s="4">
         <f>J32^(1/3)</f>
-        <v>5.7334242218630544</v>
-      </c>
-      <c r="L32">
-        <v>35</v>
-      </c>
-      <c r="M32">
-        <f>L32/16</f>
-        <v>2.1875</v>
-      </c>
-      <c r="N32">
-        <f>L32*16^3</f>
-        <v>143360</v>
-      </c>
-      <c r="O32">
-        <f>L32*J32</f>
-        <v>6596.45</v>
+        <v>5.7112325952121896</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
@@ -1543,103 +1583,60 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="8">
-        <v>-117.03339</v>
-      </c>
-      <c r="I33" s="9">
-        <f>(H33-12*$J$59-4*$J$47)/16</f>
-        <v>-0.19390018750000015</v>
-      </c>
-      <c r="J33" s="7">
-        <v>188.37</v>
-      </c>
-      <c r="K33" s="9">
-        <f>J33^(1/3)</f>
-        <v>5.7324100129614832</v>
-      </c>
-      <c r="L33" s="7">
-        <v>120</v>
-      </c>
-      <c r="M33" s="7">
-        <f>L33/16</f>
-        <v>7.5</v>
-      </c>
-      <c r="N33" s="7">
-        <f>L33*16^3</f>
-        <v>491520</v>
-      </c>
-      <c r="O33" s="7">
-        <f>L33*J33</f>
-        <v>22604.400000000001</v>
-      </c>
-      <c r="P33" t="s">
-        <v>74</v>
-      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="3">
+        <v>-98.397644999999997</v>
+      </c>
+      <c r="I34" s="4">
+        <f>(H34-12*$J$70-4*$J$76)/16</f>
+        <v>2.1874437499999733E-2</v>
+      </c>
+      <c r="J34">
+        <v>179.2</v>
+      </c>
+      <c r="K34" s="4">
+        <f>J34^(1/3)</f>
+        <v>5.6378389856519133</v>
+      </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="8">
-        <v>-117.02958</v>
-      </c>
-      <c r="I35" s="9">
-        <f>(H35-12*$J$59-4*$J$47)/16</f>
-        <v>-0.19366206250000007</v>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-98.414854000000005</v>
+      </c>
+      <c r="I35" s="4">
+        <f>(H35-12*$J$70-4*$J$76)/16</f>
+        <v>2.0798874999999217E-2</v>
       </c>
       <c r="J35">
-        <v>188.47</v>
-      </c>
-      <c r="K35" s="9">
+        <v>179.29</v>
+      </c>
+      <c r="K35" s="4">
         <f>J35^(1/3)</f>
-        <v>5.7334242218630544</v>
-      </c>
-      <c r="L35" s="7">
-        <v>35</v>
-      </c>
-      <c r="M35" s="7">
-        <f>L35/16</f>
-        <v>2.1875</v>
-      </c>
-      <c r="N35" s="7">
-        <f>L35*16^3</f>
-        <v>143360</v>
-      </c>
-      <c r="O35" s="7">
-        <f>L35*J35</f>
-        <v>6596.45</v>
-      </c>
-      <c r="P35" t="s">
-        <v>75</v>
+        <v>5.638782662339568</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
@@ -1653,40 +1650,8 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="3">
-        <v>-92.781615000000002</v>
-      </c>
-      <c r="I37" s="4">
-        <f>(H37-4*$J$59-4*$J$53-8*J$47)/16</f>
-        <v>-0.49617781250000004</v>
-      </c>
-      <c r="J37">
-        <v>189.68</v>
-      </c>
-      <c r="K37" s="4">
-        <f>J37^(1/3)</f>
-        <v>5.7456678143535784</v>
-      </c>
-      <c r="L37">
-        <v>35</v>
-      </c>
-      <c r="M37">
-        <f>L37/16</f>
-        <v>2.1875</v>
-      </c>
-      <c r="N37">
-        <f>L37*16^3</f>
-        <v>143360</v>
-      </c>
-      <c r="O37">
-        <f>L37*J37</f>
-        <v>6638.8</v>
+      <c r="G37" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
@@ -1694,40 +1659,40 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="7" t="s">
+      <c r="F38" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="8">
-        <v>-92.776201</v>
-      </c>
-      <c r="I38" s="9">
-        <f>(H38-4*$J$59-4*$J$53-8*J$47)/16</f>
-        <v>-0.49583943749999992</v>
-      </c>
-      <c r="J38" s="7">
-        <v>189.67</v>
-      </c>
-      <c r="K38" s="9">
+      <c r="G38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="3">
+        <v>-117.02958</v>
+      </c>
+      <c r="I38" s="4">
+        <f>(H38-12*$J$76-4*$J$64)/16</f>
+        <v>-0.19366206250000007</v>
+      </c>
+      <c r="J38">
+        <v>188.47</v>
+      </c>
+      <c r="K38" s="4">
         <f>J38^(1/3)</f>
-        <v>5.7455668413325496</v>
-      </c>
-      <c r="L38" s="7">
-        <v>84</v>
-      </c>
-      <c r="M38" s="7">
+        <v>5.7334242218630544</v>
+      </c>
+      <c r="L38">
+        <v>35</v>
+      </c>
+      <c r="M38">
         <f>L38/16</f>
-        <v>5.25</v>
-      </c>
-      <c r="N38" s="7">
+        <v>2.1875</v>
+      </c>
+      <c r="N38">
         <f>L38*16^3</f>
-        <v>344064</v>
-      </c>
-      <c r="O38" s="7">
+        <v>143360</v>
+      </c>
+      <c r="O38">
         <f>L38*J38</f>
-        <v>15932.279999999999</v>
+        <v>6596.45</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
@@ -1735,35 +1700,88 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7">
-        <f>K38/2</f>
-        <v>2.8727834206662748</v>
-      </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="8">
+        <v>-117.03339</v>
+      </c>
+      <c r="I39" s="9">
+        <f>(H39-12*$J$76-4*$J$64)/16</f>
+        <v>-0.19390018750000015</v>
+      </c>
+      <c r="J39" s="7">
+        <v>188.37</v>
+      </c>
+      <c r="K39" s="9">
+        <f>J39^(1/3)</f>
+        <v>5.7324100129614832</v>
+      </c>
+      <c r="L39" s="7">
+        <v>120</v>
+      </c>
+      <c r="M39" s="7">
+        <f>L39/16</f>
+        <v>7.5</v>
+      </c>
+      <c r="N39" s="7">
+        <f>L39*16^3</f>
+        <v>491520</v>
+      </c>
+      <c r="O39" s="7">
+        <f>L39*J39</f>
+        <v>22604.400000000001</v>
+      </c>
+      <c r="P39" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="8">
+        <v>-117.02958</v>
+      </c>
+      <c r="I40" s="9">
+        <f>(H40-12*$J$76-4*$J$64)/16</f>
+        <v>-0.19366206250000007</v>
+      </c>
+      <c r="J40">
+        <v>188.47</v>
+      </c>
+      <c r="K40" s="9">
+        <f>J40^(1/3)</f>
+        <v>5.7334242218630544</v>
+      </c>
+      <c r="L40" s="7">
+        <v>35</v>
+      </c>
+      <c r="M40" s="7">
+        <f>L40/16</f>
+        <v>2.1875</v>
+      </c>
+      <c r="N40" s="7">
+        <f>L40*16^3</f>
+        <v>143360</v>
+      </c>
+      <c r="O40" s="7">
+        <f>L40*J40</f>
+        <v>6596.45</v>
+      </c>
+      <c r="P40" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
@@ -1771,417 +1789,783 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="8">
-        <v>-271.23919000000001</v>
-      </c>
-      <c r="I41" s="9">
-        <f>(H41-27*$J$59-27*$J$53)/54</f>
-        <v>1.8405225370370371</v>
-      </c>
-      <c r="J41" s="7">
-        <v>592.70000000000005</v>
-      </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7">
-        <v>14</v>
-      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="7">
-        <f>L41*J41</f>
-        <v>8297.8000000000011</v>
-      </c>
+      <c r="O41" s="7"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="H42" s="3">
-        <v>-357.70127000000002</v>
-      </c>
-      <c r="I42" s="9">
-        <f>(H42-27*$J$59-27*$J$53)/54</f>
-        <v>0.2393729074074071</v>
+      <c r="F42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="11">
+        <v>-78.097783000000007</v>
+      </c>
+      <c r="I42" s="6">
+        <f>(H42-12*$J$64-4*$J$76)/16</f>
+        <v>-1.2965375000000279E-2</v>
       </c>
       <c r="J42">
-        <v>596.58000000000004</v>
-      </c>
-      <c r="L42" s="7">
-        <v>14</v>
-      </c>
-      <c r="O42" s="7">
-        <f>L42*J42</f>
-        <v>8352.1200000000008</v>
-      </c>
+        <v>213.69</v>
+      </c>
+      <c r="K42" s="6">
+        <f>J42^(1/3)</f>
+        <v>5.9785344074144984</v>
+      </c>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
+      <c r="F43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="G44" t="s">
+      <c r="F44" s="7"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="11">
+        <v>-29.273737000000001</v>
+      </c>
+      <c r="I45" s="6">
+        <f>(H45-3*$J$76-1*$J$64)/4</f>
+        <v>-0.19774756250000047</v>
+      </c>
+      <c r="J45">
+        <v>48.66</v>
+      </c>
+      <c r="K45" s="6">
+        <f>J45^(1/3)</f>
+        <v>3.6508223580223329</v>
+      </c>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="11">
+        <v>-19.916687</v>
+      </c>
+      <c r="I48" s="6">
+        <f>(H48-3*$J$64-1*$J$76)/4</f>
+        <v>-0.11102568749999975</v>
+      </c>
+      <c r="J48">
+        <v>54.69</v>
+      </c>
+      <c r="K48" s="6">
+        <f>J48^(1/3)</f>
+        <v>3.7957940537531725</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" s="11">
+        <v>-25.184843999999998</v>
+      </c>
+      <c r="I51" s="6">
+        <f>(H51-2*$J$76-2*$J$64)/4</f>
+        <v>-0.30179462499999943</v>
+      </c>
+      <c r="J51">
+        <v>46.82</v>
+      </c>
+      <c r="K51" s="6">
+        <f>J51^(1/3)</f>
+        <v>3.6042131742841335</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="5"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" s="3">
+        <v>-92.781615000000002</v>
+      </c>
+      <c r="I54" s="4">
+        <f>(H54-4*$J$76-4*$J$70-8*J$64)/16</f>
+        <v>-0.49617781250000004</v>
+      </c>
+      <c r="J54">
+        <v>189.68</v>
+      </c>
+      <c r="K54" s="4">
+        <f>J54^(1/3)</f>
+        <v>5.7456678143535784</v>
+      </c>
+      <c r="L54">
+        <v>35</v>
+      </c>
+      <c r="M54">
+        <f>L54/16</f>
+        <v>2.1875</v>
+      </c>
+      <c r="N54">
+        <f>L54*16^3</f>
+        <v>143360</v>
+      </c>
+      <c r="O54">
+        <f>L54*J54</f>
+        <v>6638.8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55" s="8">
+        <v>-92.776201</v>
+      </c>
+      <c r="I55" s="9">
+        <f>(H55-4*$J$76-4*$J$70-8*J$64)/16</f>
+        <v>-0.49583943749999992</v>
+      </c>
+      <c r="J55" s="7">
+        <v>189.67</v>
+      </c>
+      <c r="K55" s="9">
+        <f>J55^(1/3)</f>
+        <v>5.7455668413325496</v>
+      </c>
+      <c r="L55" s="7">
+        <v>84</v>
+      </c>
+      <c r="M55" s="7">
+        <f>L55/16</f>
+        <v>5.25</v>
+      </c>
+      <c r="N55" s="7">
+        <f>L55*16^3</f>
+        <v>344064</v>
+      </c>
+      <c r="O55" s="7">
+        <f>L55*J55</f>
+        <v>15932.279999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7">
+        <f>K55/2</f>
+        <v>2.8727834206662748</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58" s="8">
+        <v>-271.23919000000001</v>
+      </c>
+      <c r="I58" s="9">
+        <f>(H58-27*$J$76-27*$J$70)/54</f>
+        <v>1.8405225370370371</v>
+      </c>
+      <c r="J58" s="7">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7">
+        <v>14</v>
+      </c>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7">
+        <f>L58*J58</f>
+        <v>8297.8000000000011</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="H59" s="3">
+        <v>-357.70127000000002</v>
+      </c>
+      <c r="I59" s="9">
+        <f>(H59-27*$J$76-27*$J$70)/54</f>
+        <v>0.2393729074074071</v>
+      </c>
+      <c r="J59">
+        <v>596.58000000000004</v>
+      </c>
+      <c r="L59" s="7">
+        <v>14</v>
+      </c>
+      <c r="O59" s="7">
+        <f>L59*J59</f>
+        <v>8352.1200000000008</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" t="s">
+        <v>33</v>
+      </c>
+      <c r="K61" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" t="s">
+        <v>54</v>
+      </c>
+      <c r="M61" t="s">
+        <v>60</v>
+      </c>
+      <c r="N61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>51</v>
+      </c>
+      <c r="H63" s="3">
+        <v>-14.96574</v>
+      </c>
+      <c r="I63">
+        <v>65.91</v>
+      </c>
+      <c r="J63" s="4">
+        <f>H63/4</f>
+        <v>-3.7414350000000001</v>
+      </c>
+      <c r="K63" s="4">
+        <f>I63^(1/3)</f>
+        <v>4.0394022577400159</v>
+      </c>
+      <c r="L63">
+        <v>286</v>
+      </c>
+      <c r="M63">
+        <f>L63/4</f>
+        <v>71.5</v>
+      </c>
+      <c r="N63">
+        <f>L63*I63</f>
+        <v>18850.259999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G64" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H44" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" t="s">
-        <v>33</v>
-      </c>
-      <c r="K44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L44" t="s">
-        <v>55</v>
-      </c>
-      <c r="M44" t="s">
-        <v>61</v>
-      </c>
-      <c r="N44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="G45" t="s">
+      <c r="H64" s="8">
+        <v>-14.967503000000001</v>
+      </c>
+      <c r="I64" s="7">
+        <v>65.88</v>
+      </c>
+      <c r="J64" s="9">
+        <f t="shared" ref="J64:J65" si="0">H64/4</f>
+        <v>-3.7418757500000002</v>
+      </c>
+      <c r="K64" s="9">
+        <f t="shared" ref="K64:K65" si="1">I64^(1/3)</f>
+        <v>4.0387892983591733</v>
+      </c>
+      <c r="L64" s="7">
+        <v>816</v>
+      </c>
+      <c r="M64" s="7">
+        <f t="shared" ref="M64:M65" si="2">L64/4</f>
+        <v>204</v>
+      </c>
+      <c r="N64" s="7">
+        <f t="shared" ref="N64:N65" si="3">L64*I64</f>
+        <v>53758.079999999994</v>
+      </c>
+    </row>
+    <row r="65" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="G46" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" s="3">
-        <v>-14.96574</v>
-      </c>
-      <c r="I46">
-        <v>65.91</v>
-      </c>
-      <c r="J46" s="4">
-        <f>H46/4</f>
-        <v>-3.7414350000000001</v>
-      </c>
-      <c r="K46" s="4">
-        <f>I46^(1/3)</f>
-        <v>4.0394022577400159</v>
-      </c>
-      <c r="L46">
-        <v>286</v>
-      </c>
-      <c r="M46">
-        <f>L46/4</f>
-        <v>71.5</v>
-      </c>
-      <c r="N46">
-        <f>L46*I46</f>
-        <v>18850.259999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="G47" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H47" s="8">
-        <v>-14.967503000000001</v>
-      </c>
-      <c r="I47" s="7">
-        <v>65.88</v>
-      </c>
-      <c r="J47" s="9">
-        <f t="shared" ref="J47:J48" si="0">H47/4</f>
-        <v>-3.7418757500000002</v>
-      </c>
-      <c r="K47" s="9">
-        <f t="shared" ref="K47:K48" si="1">I47^(1/3)</f>
-        <v>4.0387892983591733</v>
-      </c>
-      <c r="L47" s="7">
-        <v>816</v>
-      </c>
-      <c r="M47" s="7">
-        <f t="shared" ref="M47:M48" si="2">L47/4</f>
-        <v>204</v>
-      </c>
-      <c r="N47" s="7">
-        <f t="shared" ref="N47:N48" si="3">L47*I47</f>
-        <v>53758.079999999994</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="G48" t="s">
-        <v>57</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="H65" s="3">
         <v>-14.96716</v>
       </c>
-      <c r="I48">
+      <c r="I65">
         <v>65.89</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J65" s="4">
         <f t="shared" si="0"/>
         <v>-3.7417899999999999</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K65" s="4">
         <f t="shared" si="1"/>
         <v>4.0389936388249081</v>
       </c>
-      <c r="L48">
+      <c r="L65">
         <v>1771</v>
       </c>
-      <c r="M48">
+      <c r="M65">
         <f t="shared" si="2"/>
         <v>442.75</v>
       </c>
-      <c r="N48">
+      <c r="N65">
         <f t="shared" si="3"/>
         <v>116691.19</v>
       </c>
     </row>
-    <row r="50" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G50" t="s">
-        <v>58</v>
-      </c>
-      <c r="H50" t="s">
+    <row r="67" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" t="s">
         <v>31</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I67" t="s">
         <v>32</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J67" t="s">
         <v>33</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K67" t="s">
         <v>34</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L67" t="s">
+        <v>54</v>
+      </c>
+      <c r="M67" t="s">
+        <v>60</v>
+      </c>
+      <c r="N67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
         <v>55</v>
       </c>
-      <c r="M50" t="s">
-        <v>61</v>
-      </c>
-      <c r="N50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G51" t="s">
+    </row>
+    <row r="69" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" s="3">
+        <v>-21.843409999999999</v>
+      </c>
+      <c r="I69">
+        <v>43.54</v>
+      </c>
+      <c r="J69" s="4">
+        <f>H69/4</f>
+        <v>-5.4608524999999997</v>
+      </c>
+      <c r="K69" s="4">
+        <f>I69^(1/3)</f>
+        <v>3.5180024823723901</v>
+      </c>
+      <c r="L69">
+        <v>286</v>
+      </c>
+      <c r="M69">
+        <f>L69/4</f>
+        <v>71.5</v>
+      </c>
+      <c r="N69">
+        <f>L69*I69</f>
+        <v>12452.44</v>
+      </c>
+    </row>
+    <row r="70" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G70" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H70" s="8">
+        <v>-21.919936</v>
+      </c>
+      <c r="I70" s="7">
+        <v>43.39</v>
+      </c>
+      <c r="J70" s="9">
+        <f t="shared" ref="J70:J71" si="4">H70/4</f>
+        <v>-5.479984</v>
+      </c>
+      <c r="K70" s="9">
+        <f t="shared" ref="K70:K71" si="5">I70^(1/3)</f>
+        <v>3.5139578679964503</v>
+      </c>
+      <c r="L70" s="7">
+        <v>816</v>
+      </c>
+      <c r="M70" s="7">
+        <f t="shared" ref="M70:M71" si="6">L70/4</f>
+        <v>204</v>
+      </c>
+      <c r="N70" s="7">
+        <f t="shared" ref="N70:N71" si="7">L70*I70</f>
+        <v>35406.239999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H52" s="3">
-        <v>-21.843409999999999</v>
-      </c>
-      <c r="I52">
-        <v>43.54</v>
-      </c>
-      <c r="J52" s="4">
-        <f>H52/4</f>
-        <v>-5.4608524999999997</v>
-      </c>
-      <c r="K52" s="4">
-        <f>I52^(1/3)</f>
-        <v>3.5180024823723901</v>
-      </c>
-      <c r="L52">
-        <v>286</v>
-      </c>
-      <c r="M52">
-        <f>L52/4</f>
-        <v>71.5</v>
-      </c>
-      <c r="N52">
-        <f>L52*I52</f>
-        <v>12452.44</v>
-      </c>
-    </row>
-    <row r="53" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G53" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H53" s="8">
-        <v>-21.919936</v>
-      </c>
-      <c r="I53" s="7">
-        <v>43.39</v>
-      </c>
-      <c r="J53" s="9">
-        <f t="shared" ref="J53:J54" si="4">H53/4</f>
-        <v>-5.479984</v>
-      </c>
-      <c r="K53" s="9">
-        <f t="shared" ref="K53:K54" si="5">I53^(1/3)</f>
-        <v>3.5139578679964503</v>
-      </c>
-      <c r="L53" s="7">
-        <v>816</v>
-      </c>
-      <c r="M53" s="7">
-        <f t="shared" ref="M53:M54" si="6">L53/4</f>
-        <v>204</v>
-      </c>
-      <c r="N53" s="7">
-        <f t="shared" ref="N53:N54" si="7">L53*I53</f>
-        <v>35406.239999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G54" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="J54" s="4">
+      <c r="H71" s="3"/>
+      <c r="J71" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K71" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L54">
+      <c r="L71">
         <v>1771</v>
       </c>
-      <c r="M54">
+      <c r="M71">
         <f t="shared" si="6"/>
         <v>442.75</v>
       </c>
-      <c r="N54">
+      <c r="N71">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G56" t="s">
-        <v>59</v>
-      </c>
-      <c r="H56" t="s">
+    <row r="73" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H73" t="s">
         <v>31</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I73" t="s">
         <v>32</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J73" t="s">
         <v>33</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K73" t="s">
         <v>34</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L73" t="s">
+        <v>54</v>
+      </c>
+      <c r="M73" t="s">
+        <v>60</v>
+      </c>
+      <c r="N73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
         <v>55</v>
       </c>
-      <c r="M56" t="s">
-        <v>61</v>
-      </c>
-      <c r="N56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G57" t="s">
+    </row>
+    <row r="75" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="3">
+        <v>-16.493448999999998</v>
+      </c>
+      <c r="I75">
+        <v>22.67</v>
+      </c>
+      <c r="J75" s="4">
+        <f>H75/2</f>
+        <v>-8.2467244999999991</v>
+      </c>
+      <c r="K75" s="4">
+        <f>I75^(1/3)</f>
+        <v>2.8302003046342876</v>
+      </c>
+      <c r="L75">
+        <v>286</v>
+      </c>
+      <c r="M75">
+        <f>L75/2</f>
+        <v>143</v>
+      </c>
+      <c r="N75">
+        <f>L75*I75</f>
+        <v>6483.6200000000008</v>
+      </c>
+    </row>
+    <row r="76" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G76" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H76" s="8">
+        <v>-16.493914</v>
+      </c>
+      <c r="I76" s="7">
+        <v>22.68</v>
+      </c>
+      <c r="J76" s="9">
+        <f t="shared" ref="J76:J77" si="8">H76/2</f>
+        <v>-8.2469570000000001</v>
+      </c>
+      <c r="K76" s="9">
+        <f t="shared" ref="K76:K77" si="9">I76^(1/3)</f>
+        <v>2.8306163881899198</v>
+      </c>
+      <c r="L76" s="7">
+        <v>816</v>
+      </c>
+      <c r="M76" s="7">
+        <f t="shared" ref="M76:M77" si="10">L76/2</f>
+        <v>408</v>
+      </c>
+      <c r="N76" s="7">
+        <f t="shared" ref="N76:N77" si="11">L76*I76</f>
+        <v>18506.88</v>
+      </c>
+    </row>
+    <row r="77" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G58" t="s">
-        <v>52</v>
-      </c>
-      <c r="H58" s="3">
-        <v>-16.493448999999998</v>
-      </c>
-      <c r="I58">
-        <v>22.67</v>
-      </c>
-      <c r="J58" s="4">
-        <f>H58/2</f>
-        <v>-8.2467244999999991</v>
-      </c>
-      <c r="K58" s="4">
-        <f>I58^(1/3)</f>
-        <v>2.8302003046342876</v>
-      </c>
-      <c r="L58">
-        <v>286</v>
-      </c>
-      <c r="M58">
-        <f>L58/2</f>
-        <v>143</v>
-      </c>
-      <c r="N58">
-        <f>L58*I58</f>
-        <v>6483.6200000000008</v>
-      </c>
-    </row>
-    <row r="59" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G59" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H59" s="8">
-        <v>-16.493914</v>
-      </c>
-      <c r="I59" s="7">
-        <v>22.68</v>
-      </c>
-      <c r="J59" s="9">
-        <f t="shared" ref="J59:J60" si="8">H59/2</f>
-        <v>-8.2469570000000001</v>
-      </c>
-      <c r="K59" s="9">
-        <f t="shared" ref="K59:K60" si="9">I59^(1/3)</f>
-        <v>2.8306163881899198</v>
-      </c>
-      <c r="L59" s="7">
-        <v>816</v>
-      </c>
-      <c r="M59" s="7">
-        <f t="shared" ref="M59:M60" si="10">L59/2</f>
-        <v>408</v>
-      </c>
-      <c r="N59" s="7">
-        <f t="shared" ref="N59:N60" si="11">L59*I59</f>
-        <v>18506.88</v>
-      </c>
-    </row>
-    <row r="60" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G60" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="H77" s="3">
         <v>-16.494052</v>
       </c>
-      <c r="I60">
+      <c r="I77">
         <v>22.65</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J77" s="4">
         <f t="shared" si="8"/>
         <v>-8.247026</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K77" s="4">
         <f t="shared" si="9"/>
         <v>2.8293677703004372</v>
       </c>
-      <c r="L60">
+      <c r="L77">
         <v>1771</v>
       </c>
-      <c r="M60">
+      <c r="M77">
         <f t="shared" si="10"/>
         <v>885.5</v>
       </c>
-      <c r="N60">
+      <c r="N77">
         <f t="shared" si="11"/>
         <v>40113.149999999994</v>
       </c>
